--- a/Postcode/Victoria.xlsx
+++ b/Postcode/Victoria.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Dropbox/RealestateCrawler/Postcode/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBBE1FF-CD18-4013-A541-D4AC6F773CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +15,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2204,7 +2200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2518,18 +2514,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>720</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3000</v>
       </c>
@@ -2551,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3001</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3002</v>
       </c>
@@ -2573,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3003</v>
       </c>
@@ -2584,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3004</v>
       </c>
@@ -2595,7 +2591,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3005</v>
       </c>
@@ -2606,7 +2602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3006</v>
       </c>
@@ -2617,7 +2613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3008</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3010</v>
       </c>
@@ -2639,7 +2635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3011</v>
       </c>
@@ -2650,7 +2646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3012</v>
       </c>
@@ -2661,7 +2657,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3013</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3015</v>
       </c>
@@ -2683,7 +2679,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3016</v>
       </c>
@@ -2694,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3018</v>
       </c>
@@ -2705,7 +2701,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3019</v>
       </c>
@@ -2716,7 +2712,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3020</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3021</v>
       </c>
@@ -2738,7 +2734,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3022</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3023</v>
       </c>
@@ -2760,7 +2756,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3024</v>
       </c>
@@ -2771,7 +2767,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3025</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3026</v>
       </c>
@@ -2793,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3027</v>
       </c>
@@ -2804,7 +2800,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3028</v>
       </c>
@@ -2815,7 +2811,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3029</v>
       </c>
@@ -2826,7 +2822,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3030</v>
       </c>
@@ -2837,7 +2833,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3031</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3032</v>
       </c>
@@ -2859,7 +2855,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3033</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3034</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3036</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3037</v>
       </c>
@@ -2903,7 +2899,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>3038</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3039</v>
       </c>
@@ -2925,7 +2921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3040</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3041</v>
       </c>
@@ -2947,7 +2943,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3042</v>
       </c>
@@ -2958,7 +2954,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>3043</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3044</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3045</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3046</v>
       </c>
@@ -3002,7 +2998,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>3047</v>
       </c>
@@ -3013,7 +3009,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3048</v>
       </c>
@@ -3024,7 +3020,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3049</v>
       </c>
@@ -3035,7 +3031,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3050</v>
       </c>
@@ -3046,7 +3042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3051</v>
       </c>
@@ -3057,7 +3053,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3052</v>
       </c>
@@ -3068,7 +3064,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3053</v>
       </c>
@@ -3079,7 +3075,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3054</v>
       </c>
@@ -3090,7 +3086,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3055</v>
       </c>
@@ -3101,7 +3097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3056</v>
       </c>
@@ -3112,7 +3108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3057</v>
       </c>
@@ -3123,7 +3119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3058</v>
       </c>
@@ -3134,7 +3130,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>3059</v>
       </c>
@@ -3145,7 +3141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3060</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3061</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3062</v>
       </c>
@@ -3178,7 +3174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3063</v>
       </c>
@@ -3189,7 +3185,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3064</v>
       </c>
@@ -3200,7 +3196,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3065</v>
       </c>
@@ -3211,7 +3207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>3066</v>
       </c>
@@ -3222,7 +3218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>3067</v>
       </c>
@@ -3233,7 +3229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>3068</v>
       </c>
@@ -3244,7 +3240,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3070</v>
       </c>
@@ -3255,7 +3251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3071</v>
       </c>
@@ -3266,7 +3262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>3072</v>
       </c>
@@ -3277,7 +3273,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3073</v>
       </c>
@@ -3288,7 +3284,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>3074</v>
       </c>
@@ -3299,7 +3295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3075</v>
       </c>
@@ -3310,7 +3306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3076</v>
       </c>
@@ -3321,7 +3317,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>3078</v>
       </c>
@@ -3332,7 +3328,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>3079</v>
       </c>
@@ -3343,7 +3339,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>3081</v>
       </c>
@@ -3354,7 +3350,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3082</v>
       </c>
@@ -3365,7 +3361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>3083</v>
       </c>
@@ -3376,7 +3372,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>3084</v>
       </c>
@@ -3387,7 +3383,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>3085</v>
       </c>
@@ -3398,7 +3394,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3087</v>
       </c>
@@ -3409,7 +3405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3088</v>
       </c>
@@ -3420,7 +3416,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3089</v>
       </c>
@@ -3431,7 +3427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>3090</v>
       </c>
@@ -3442,7 +3438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>3091</v>
       </c>
@@ -3453,7 +3449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>3093</v>
       </c>
@@ -3464,7 +3460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>3094</v>
       </c>
@@ -3475,7 +3471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>3095</v>
       </c>
@@ -3486,7 +3482,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3096</v>
       </c>
@@ -3497,7 +3493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>3097</v>
       </c>
@@ -3508,7 +3504,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>3099</v>
       </c>
@@ -3519,7 +3515,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>3101</v>
       </c>
@@ -3530,7 +3526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3102</v>
       </c>
@@ -3541,7 +3537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>3103</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>3104</v>
       </c>
@@ -3563,7 +3559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3105</v>
       </c>
@@ -3574,7 +3570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3106</v>
       </c>
@@ -3585,7 +3581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>3107</v>
       </c>
@@ -3596,7 +3592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>3108</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3109</v>
       </c>
@@ -3618,7 +3614,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>3110</v>
       </c>
@@ -3629,7 +3625,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>3111</v>
       </c>
@@ -3640,7 +3636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>3113</v>
       </c>
@@ -3651,7 +3647,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>3114</v>
       </c>
@@ -3662,7 +3658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>3115</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>3116</v>
       </c>
@@ -3684,7 +3680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>3121</v>
       </c>
@@ -3695,7 +3691,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>3122</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>3123</v>
       </c>
@@ -3717,7 +3713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>3124</v>
       </c>
@@ -3728,7 +3724,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>3125</v>
       </c>
@@ -3739,7 +3735,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>3126</v>
       </c>
@@ -3750,7 +3746,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3127</v>
       </c>
@@ -3761,7 +3757,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3128</v>
       </c>
@@ -3772,7 +3768,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>3129</v>
       </c>
@@ -3783,7 +3779,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>3130</v>
       </c>
@@ -3794,7 +3790,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3131</v>
       </c>
@@ -3805,7 +3801,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>3132</v>
       </c>
@@ -3816,7 +3812,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>3133</v>
       </c>
@@ -3827,7 +3823,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>3134</v>
       </c>
@@ -3838,7 +3834,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>3135</v>
       </c>
@@ -3849,7 +3845,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>3136</v>
       </c>
@@ -3860,7 +3856,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>3137</v>
       </c>
@@ -3871,7 +3867,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>3138</v>
       </c>
@@ -3882,7 +3878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>3139</v>
       </c>
@@ -3893,7 +3889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>3140</v>
       </c>
@@ -3904,7 +3900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>3141</v>
       </c>
@@ -3915,7 +3911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>3142</v>
       </c>
@@ -3926,7 +3922,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>3143</v>
       </c>
@@ -3937,7 +3933,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>3144</v>
       </c>
@@ -3948,7 +3944,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>3145</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>3146</v>
       </c>
@@ -3970,7 +3966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>3147</v>
       </c>
@@ -3981,7 +3977,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>3148</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>3149</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>3150</v>
       </c>
@@ -4014,7 +4010,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>3151</v>
       </c>
@@ -4025,7 +4021,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>3152</v>
       </c>
@@ -4036,7 +4032,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>3153</v>
       </c>
@@ -4047,7 +4043,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>3154</v>
       </c>
@@ -4058,7 +4054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>3155</v>
       </c>
@@ -4069,7 +4065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>3156</v>
       </c>
@@ -4080,7 +4076,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>3158</v>
       </c>
@@ -4091,7 +4087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>3159</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>3160</v>
       </c>
@@ -4113,7 +4109,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>3161</v>
       </c>
@@ -4124,7 +4120,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>3162</v>
       </c>
@@ -4135,7 +4131,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>3163</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>3164</v>
       </c>
@@ -4157,7 +4153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>3165</v>
       </c>
@@ -4168,7 +4164,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>3166</v>
       </c>
@@ -4179,7 +4175,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>3167</v>
       </c>
@@ -4190,7 +4186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>3168</v>
       </c>
@@ -4201,7 +4197,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>3169</v>
       </c>
@@ -4212,7 +4208,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>3170</v>
       </c>
@@ -4223,7 +4219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>3171</v>
       </c>
@@ -4234,7 +4230,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>3172</v>
       </c>
@@ -4245,7 +4241,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>3173</v>
       </c>
@@ -4256,7 +4252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>3174</v>
       </c>
@@ -4267,7 +4263,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>3175</v>
       </c>
@@ -4278,7 +4274,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>3176</v>
       </c>
@@ -4289,7 +4285,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>3177</v>
       </c>
@@ -4300,7 +4296,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>3178</v>
       </c>
@@ -4311,7 +4307,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>3179</v>
       </c>
@@ -4322,7 +4318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>3180</v>
       </c>
@@ -4333,7 +4329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>3181</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>3182</v>
       </c>
@@ -4355,7 +4351,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>3183</v>
       </c>
@@ -4366,7 +4362,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>3184</v>
       </c>
@@ -4377,7 +4373,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>3185</v>
       </c>
@@ -4388,7 +4384,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>3186</v>
       </c>
@@ -4399,7 +4395,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>3187</v>
       </c>
@@ -4410,7 +4406,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>3188</v>
       </c>
@@ -4421,7 +4417,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>3189</v>
       </c>
@@ -4432,7 +4428,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>3190</v>
       </c>
@@ -4443,7 +4439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>3191</v>
       </c>
@@ -4454,7 +4450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>3192</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>3193</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>3194</v>
       </c>
@@ -4487,7 +4483,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>3195</v>
       </c>
@@ -4498,7 +4494,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>3196</v>
       </c>
@@ -4509,7 +4505,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>3197</v>
       </c>
@@ -4520,7 +4516,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>3198</v>
       </c>
@@ -4531,7 +4527,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>3199</v>
       </c>
@@ -4542,7 +4538,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>3200</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>3201</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>3202</v>
       </c>
@@ -4575,7 +4571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>3204</v>
       </c>
@@ -4586,7 +4582,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>3205</v>
       </c>
@@ -4597,7 +4593,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>3206</v>
       </c>
@@ -4608,7 +4604,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>3207</v>
       </c>
@@ -4619,7 +4615,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>3211</v>
       </c>
@@ -4630,7 +4626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>3212</v>
       </c>
@@ -4641,7 +4637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>3213</v>
       </c>
@@ -4652,7 +4648,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>3214</v>
       </c>
@@ -4663,7 +4659,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>3215</v>
       </c>
@@ -4674,7 +4670,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>3216</v>
       </c>
@@ -4685,7 +4681,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>3217</v>
       </c>
@@ -4696,7 +4692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>3218</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>3219</v>
       </c>
@@ -4718,7 +4714,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>3220</v>
       </c>
@@ -4729,7 +4725,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>3221</v>
       </c>
@@ -4740,7 +4736,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>3222</v>
       </c>
@@ -4751,7 +4747,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>3223</v>
       </c>
@@ -4762,7 +4758,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>3224</v>
       </c>
@@ -4773,7 +4769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>3225</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>3226</v>
       </c>
@@ -4795,7 +4791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>3227</v>
       </c>
@@ -4806,7 +4802,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>3228</v>
       </c>
@@ -4817,7 +4813,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>3230</v>
       </c>
@@ -4828,7 +4824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>3231</v>
       </c>
@@ -4839,7 +4835,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>3232</v>
       </c>
@@ -4850,7 +4846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>3233</v>
       </c>
@@ -4861,7 +4857,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>3234</v>
       </c>
@@ -4872,7 +4868,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>3235</v>
       </c>
@@ -4883,7 +4879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>3236</v>
       </c>
@@ -4894,7 +4890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>3237</v>
       </c>
@@ -4905,7 +4901,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>3238</v>
       </c>
@@ -4916,7 +4912,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>3239</v>
       </c>
@@ -4927,7 +4923,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>3240</v>
       </c>
@@ -4938,7 +4934,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>3241</v>
       </c>
@@ -4949,7 +4945,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>3242</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>3243</v>
       </c>
@@ -4971,7 +4967,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>3249</v>
       </c>
@@ -4982,7 +4978,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>3250</v>
       </c>
@@ -4993,7 +4989,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>3251</v>
       </c>
@@ -5004,7 +5000,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>3254</v>
       </c>
@@ -5015,7 +5011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>3260</v>
       </c>
@@ -5026,7 +5022,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>3264</v>
       </c>
@@ -5037,7 +5033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>3265</v>
       </c>
@@ -5048,7 +5044,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>3266</v>
       </c>
@@ -5059,7 +5055,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>3267</v>
       </c>
@@ -5070,7 +5066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>3268</v>
       </c>
@@ -5081,7 +5077,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>3269</v>
       </c>
@@ -5092,7 +5088,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>3270</v>
       </c>
@@ -5103,7 +5099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>3271</v>
       </c>
@@ -5114,7 +5110,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>3272</v>
       </c>
@@ -5125,7 +5121,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>3273</v>
       </c>
@@ -5136,7 +5132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>3274</v>
       </c>
@@ -5147,7 +5143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>3275</v>
       </c>
@@ -5158,7 +5154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>3276</v>
       </c>
@@ -5169,7 +5165,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>3277</v>
       </c>
@@ -5180,7 +5176,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>3278</v>
       </c>
@@ -5191,7 +5187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>3279</v>
       </c>
@@ -5202,7 +5198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>3280</v>
       </c>
@@ -5213,7 +5209,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>3281</v>
       </c>
@@ -5224,7 +5220,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>3282</v>
       </c>
@@ -5235,7 +5231,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>3283</v>
       </c>
@@ -5246,7 +5242,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>3284</v>
       </c>
@@ -5257,7 +5253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>3285</v>
       </c>
@@ -5268,7 +5264,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>3286</v>
       </c>
@@ -5279,7 +5275,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>3287</v>
       </c>
@@ -5290,7 +5286,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>3289</v>
       </c>
@@ -5301,7 +5297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>3292</v>
       </c>
@@ -5312,7 +5308,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>3293</v>
       </c>
@@ -5323,7 +5319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>3294</v>
       </c>
@@ -5334,7 +5330,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>3300</v>
       </c>
@@ -5345,7 +5341,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>3301</v>
       </c>
@@ -5356,7 +5352,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>3302</v>
       </c>
@@ -5367,7 +5363,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>3303</v>
       </c>
@@ -5378,7 +5374,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>3304</v>
       </c>
@@ -5389,7 +5385,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>3305</v>
       </c>
@@ -5400,7 +5396,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>3309</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>3310</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>3311</v>
       </c>
@@ -5433,7 +5429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>3312</v>
       </c>
@@ -5444,7 +5440,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>3314</v>
       </c>
@@ -5455,7 +5451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>3315</v>
       </c>
@@ -5466,7 +5462,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>3317</v>
       </c>
@@ -5477,7 +5473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>3318</v>
       </c>
@@ -5488,7 +5484,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>3319</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>3321</v>
       </c>
@@ -5510,7 +5506,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>3322</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>3323</v>
       </c>
@@ -5532,7 +5528,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>3324</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>3325</v>
       </c>
@@ -5554,7 +5550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>3328</v>
       </c>
@@ -5565,7 +5561,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>3329</v>
       </c>
@@ -5576,7 +5572,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>3330</v>
       </c>
@@ -5587,7 +5583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>3331</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>3332</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>3333</v>
       </c>
@@ -5620,7 +5616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>3334</v>
       </c>
@@ -5631,7 +5627,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>3335</v>
       </c>
@@ -5642,7 +5638,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>3337</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>3338</v>
       </c>
@@ -5664,7 +5660,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>3340</v>
       </c>
@@ -5675,7 +5671,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>3341</v>
       </c>
@@ -5686,7 +5682,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>3342</v>
       </c>
@@ -5697,7 +5693,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>3345</v>
       </c>
@@ -5708,7 +5704,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>3350</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>3351</v>
       </c>
@@ -5730,7 +5726,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>3352</v>
       </c>
@@ -5741,7 +5737,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>3353</v>
       </c>
@@ -5752,7 +5748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>3354</v>
       </c>
@@ -5763,7 +5759,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>3355</v>
       </c>
@@ -5774,7 +5770,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>3356</v>
       </c>
@@ -5785,7 +5781,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>3357</v>
       </c>
@@ -5796,7 +5792,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>3360</v>
       </c>
@@ -5807,7 +5803,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>3361</v>
       </c>
@@ -5818,7 +5814,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>3363</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>3364</v>
       </c>
@@ -5840,7 +5836,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>3370</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>3371</v>
       </c>
@@ -5862,7 +5858,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>3373</v>
       </c>
@@ -5873,7 +5869,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>3375</v>
       </c>
@@ -5884,7 +5880,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>3377</v>
       </c>
@@ -5895,7 +5891,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>3378</v>
       </c>
@@ -5906,7 +5902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>3379</v>
       </c>
@@ -5917,7 +5913,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>3380</v>
       </c>
@@ -5928,7 +5924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>3381</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>3384</v>
       </c>
@@ -5950,7 +5946,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>3385</v>
       </c>
@@ -5961,7 +5957,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>3387</v>
       </c>
@@ -5972,7 +5968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>3388</v>
       </c>
@@ -5983,7 +5979,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>3390</v>
       </c>
@@ -5994,7 +5990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>3391</v>
       </c>
@@ -6005,7 +6001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>3392</v>
       </c>
@@ -6016,7 +6012,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>3393</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>3395</v>
       </c>
@@ -6038,7 +6034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>3396</v>
       </c>
@@ -6049,7 +6045,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>3400</v>
       </c>
@@ -6060,7 +6056,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>3401</v>
       </c>
@@ -6071,7 +6067,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>3402</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>3407</v>
       </c>
@@ -6093,7 +6089,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>3409</v>
       </c>
@@ -6104,7 +6100,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>3412</v>
       </c>
@@ -6115,7 +6111,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>3413</v>
       </c>
@@ -6126,7 +6122,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>3414</v>
       </c>
@@ -6137,7 +6133,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>3415</v>
       </c>
@@ -6148,7 +6144,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>3418</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>3419</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>3420</v>
       </c>
@@ -6181,7 +6177,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>3423</v>
       </c>
@@ -6192,7 +6188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>3424</v>
       </c>
@@ -6203,7 +6199,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>3427</v>
       </c>
@@ -6214,7 +6210,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>3428</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>3429</v>
       </c>
@@ -6236,7 +6232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>3430</v>
       </c>
@@ -6247,7 +6243,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>3431</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>3432</v>
       </c>
@@ -6269,7 +6265,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>3434</v>
       </c>
@@ -6280,7 +6276,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>3435</v>
       </c>
@@ -6291,7 +6287,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>3437</v>
       </c>
@@ -6302,7 +6298,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>3438</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>3440</v>
       </c>
@@ -6324,7 +6320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>3441</v>
       </c>
@@ -6335,7 +6331,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>3442</v>
       </c>
@@ -6346,7 +6342,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>3444</v>
       </c>
@@ -6357,7 +6353,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>3446</v>
       </c>
@@ -6368,7 +6364,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>3447</v>
       </c>
@@ -6379,7 +6375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>3448</v>
       </c>
@@ -6390,7 +6386,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>3450</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>3451</v>
       </c>
@@ -6412,7 +6408,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>3453</v>
       </c>
@@ -6423,7 +6419,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>3458</v>
       </c>
@@ -6434,7 +6430,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>3460</v>
       </c>
@@ -6445,7 +6441,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>3461</v>
       </c>
@@ -6456,7 +6452,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>3462</v>
       </c>
@@ -6467,7 +6463,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>3463</v>
       </c>
@@ -6478,7 +6474,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>3464</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>3465</v>
       </c>
@@ -6500,7 +6496,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>3467</v>
       </c>
@@ -6511,7 +6507,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>3468</v>
       </c>
@@ -6522,7 +6518,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>3469</v>
       </c>
@@ -6533,7 +6529,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>3472</v>
       </c>
@@ -6544,7 +6540,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>3475</v>
       </c>
@@ -6555,7 +6551,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>3478</v>
       </c>
@@ -6566,7 +6562,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>3480</v>
       </c>
@@ -6577,7 +6573,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>3482</v>
       </c>
@@ -6588,7 +6584,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>3483</v>
       </c>
@@ -6599,7 +6595,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>3485</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>3487</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>3488</v>
       </c>
@@ -6632,7 +6628,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>3489</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>3490</v>
       </c>
@@ -6654,7 +6650,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>3491</v>
       </c>
@@ -6665,7 +6661,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>3494</v>
       </c>
@@ -6676,7 +6672,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>3496</v>
       </c>
@@ -6687,7 +6683,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>3498</v>
       </c>
@@ -6698,7 +6694,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>3500</v>
       </c>
@@ -6709,7 +6705,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>3501</v>
       </c>
@@ -6720,7 +6716,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>3502</v>
       </c>
@@ -6731,7 +6727,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>3505</v>
       </c>
@@ -6742,7 +6738,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>3506</v>
       </c>
@@ -6753,7 +6749,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>3507</v>
       </c>
@@ -6764,7 +6760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>3509</v>
       </c>
@@ -6775,7 +6771,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>3512</v>
       </c>
@@ -6786,7 +6782,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>3515</v>
       </c>
@@ -6797,7 +6793,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>3516</v>
       </c>
@@ -6808,7 +6804,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>3517</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>3518</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>3520</v>
       </c>
@@ -6841,7 +6837,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>3521</v>
       </c>
@@ -6852,7 +6848,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>3522</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>3523</v>
       </c>
@@ -6874,7 +6870,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>3525</v>
       </c>
@@ -6885,7 +6881,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>3527</v>
       </c>
@@ -6896,7 +6892,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>3529</v>
       </c>
@@ -6907,7 +6903,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>3530</v>
       </c>
@@ -6918,7 +6914,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>3531</v>
       </c>
@@ -6929,7 +6925,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>3533</v>
       </c>
@@ -6940,7 +6936,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>3537</v>
       </c>
@@ -6951,7 +6947,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>3540</v>
       </c>
@@ -6962,7 +6958,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>3542</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>3544</v>
       </c>
@@ -6984,7 +6980,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>3546</v>
       </c>
@@ -6995,7 +6991,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>3549</v>
       </c>
@@ -7006,7 +7002,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>3550</v>
       </c>
@@ -7017,7 +7013,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>3551</v>
       </c>
@@ -7028,7 +7024,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>3552</v>
       </c>
@@ -7039,7 +7035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>3554</v>
       </c>
@@ -7050,7 +7046,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>3555</v>
       </c>
@@ -7061,7 +7057,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>3556</v>
       </c>
@@ -7072,7 +7068,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>3557</v>
       </c>
@@ -7083,7 +7079,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>3558</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>3559</v>
       </c>
@@ -7105,7 +7101,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>3561</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>3562</v>
       </c>
@@ -7127,7 +7123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>3563</v>
       </c>
@@ -7138,7 +7134,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>3564</v>
       </c>
@@ -7149,7 +7145,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>3565</v>
       </c>
@@ -7160,7 +7156,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>3566</v>
       </c>
@@ -7171,7 +7167,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>3567</v>
       </c>
@@ -7182,7 +7178,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>3568</v>
       </c>
@@ -7193,7 +7189,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>3570</v>
       </c>
@@ -7204,7 +7200,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>3571</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>3572</v>
       </c>
@@ -7226,7 +7222,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>3573</v>
       </c>
@@ -7237,7 +7233,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>3575</v>
       </c>
@@ -7248,7 +7244,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>3576</v>
       </c>
@@ -7259,7 +7255,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>3579</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>3580</v>
       </c>
@@ -7281,7 +7277,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>3581</v>
       </c>
@@ -7292,7 +7288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>3583</v>
       </c>
@@ -7303,7 +7299,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>3584</v>
       </c>
@@ -7314,7 +7310,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>3585</v>
       </c>
@@ -7325,7 +7321,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>3588</v>
       </c>
@@ -7336,7 +7332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>3589</v>
       </c>
@@ -7347,7 +7343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>3590</v>
       </c>
@@ -7358,7 +7354,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>3591</v>
       </c>
@@ -7369,7 +7365,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>3594</v>
       </c>
@@ -7380,7 +7376,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>3595</v>
       </c>
@@ -7391,7 +7387,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>3596</v>
       </c>
@@ -7402,7 +7398,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>3597</v>
       </c>
@@ -7413,7 +7409,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>3599</v>
       </c>
@@ -7424,7 +7420,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>3607</v>
       </c>
@@ -7435,7 +7431,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>3608</v>
       </c>
@@ -7446,7 +7442,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>3610</v>
       </c>
@@ -7457,7 +7453,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>3612</v>
       </c>
@@ -7468,7 +7464,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>3614</v>
       </c>
@@ -7479,7 +7475,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>3616</v>
       </c>
@@ -7490,7 +7486,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>3617</v>
       </c>
@@ -7501,7 +7497,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>3618</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>3619</v>
       </c>
@@ -7523,7 +7519,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>3620</v>
       </c>
@@ -7534,7 +7530,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>3621</v>
       </c>
@@ -7545,7 +7541,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>3622</v>
       </c>
@@ -7556,7 +7552,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>3623</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>3624</v>
       </c>
@@ -7578,7 +7574,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>3629</v>
       </c>
@@ -7589,7 +7585,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>3630</v>
       </c>
@@ -7600,7 +7596,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>3631</v>
       </c>
@@ -7611,7 +7607,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>3632</v>
       </c>
@@ -7622,7 +7618,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>3633</v>
       </c>
@@ -7633,7 +7629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>3634</v>
       </c>
@@ -7644,7 +7640,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>3635</v>
       </c>
@@ -7655,7 +7651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>3636</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>3637</v>
       </c>
@@ -7677,7 +7673,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>3638</v>
       </c>
@@ -7688,7 +7684,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>3639</v>
       </c>
@@ -7699,7 +7695,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>3640</v>
       </c>
@@ -7710,7 +7706,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>3641</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>3643</v>
       </c>
@@ -7732,7 +7728,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>3644</v>
       </c>
@@ -7743,7 +7739,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>3646</v>
       </c>
@@ -7754,7 +7750,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>3647</v>
       </c>
@@ -7765,7 +7761,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>3649</v>
       </c>
@@ -7776,7 +7772,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>3658</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>3659</v>
       </c>
@@ -7798,7 +7794,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>3660</v>
       </c>
@@ -7809,7 +7805,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>3661</v>
       </c>
@@ -7820,7 +7816,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>3662</v>
       </c>
@@ -7831,7 +7827,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>3663</v>
       </c>
@@ -7842,7 +7838,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>3664</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>3665</v>
       </c>
@@ -7864,7 +7860,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>3666</v>
       </c>
@@ -7875,7 +7871,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>3669</v>
       </c>
@@ -7886,7 +7882,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>3670</v>
       </c>
@@ -7897,7 +7893,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>3671</v>
       </c>
@@ -7908,7 +7904,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>3672</v>
       </c>
@@ -7919,7 +7915,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>3673</v>
       </c>
@@ -7930,7 +7926,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>3675</v>
       </c>
@@ -7941,7 +7937,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>3676</v>
       </c>
@@ -7952,7 +7948,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>3677</v>
       </c>
@@ -7963,7 +7959,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>3678</v>
       </c>
@@ -7974,7 +7970,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>3682</v>
       </c>
@@ -7985,7 +7981,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>3683</v>
       </c>
@@ -7996,7 +7992,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>3685</v>
       </c>
@@ -8007,7 +8003,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>3687</v>
       </c>
@@ -8018,7 +8014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>3688</v>
       </c>
@@ -8029,7 +8025,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>3689</v>
       </c>
@@ -8040,7 +8036,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>3690</v>
       </c>
@@ -8051,7 +8047,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>3691</v>
       </c>
@@ -8062,7 +8058,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>3694</v>
       </c>
@@ -8073,7 +8069,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>3695</v>
       </c>
@@ -8084,7 +8080,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>3697</v>
       </c>
@@ -8095,7 +8091,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>3698</v>
       </c>
@@ -8106,7 +8102,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>3699</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>3700</v>
       </c>
@@ -8128,7 +8124,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>3701</v>
       </c>
@@ -8139,7 +8135,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>3704</v>
       </c>
@@ -8150,7 +8146,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>3705</v>
       </c>
@@ -8161,7 +8157,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>3707</v>
       </c>
@@ -8172,7 +8168,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>3708</v>
       </c>
@@ -8183,7 +8179,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>3709</v>
       </c>
@@ -8194,7 +8190,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>3711</v>
       </c>
@@ -8205,7 +8201,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>3712</v>
       </c>
@@ -8216,7 +8212,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>3713</v>
       </c>
@@ -8227,7 +8223,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>3714</v>
       </c>
@@ -8238,7 +8234,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>3715</v>
       </c>
@@ -8249,7 +8245,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>3717</v>
       </c>
@@ -8260,7 +8256,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>3718</v>
       </c>
@@ -8271,7 +8267,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>3719</v>
       </c>
@@ -8282,7 +8278,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>3720</v>
       </c>
@@ -8293,7 +8289,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>3722</v>
       </c>
@@ -8304,7 +8300,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>3723</v>
       </c>
@@ -8315,7 +8311,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>3724</v>
       </c>
@@ -8326,7 +8322,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>3725</v>
       </c>
@@ -8337,7 +8333,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>3726</v>
       </c>
@@ -8348,7 +8344,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>3727</v>
       </c>
@@ -8359,7 +8355,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>3728</v>
       </c>
@@ -8370,7 +8366,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>3730</v>
       </c>
@@ -8381,7 +8377,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>3732</v>
       </c>
@@ -8392,7 +8388,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>3733</v>
       </c>
@@ -8403,7 +8399,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>3735</v>
       </c>
@@ -8414,7 +8410,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>3736</v>
       </c>
@@ -8425,7 +8421,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>3737</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>3738</v>
       </c>
@@ -8447,7 +8443,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>3739</v>
       </c>
@@ -8458,7 +8454,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>3740</v>
       </c>
@@ -8469,7 +8465,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>3741</v>
       </c>
@@ -8480,7 +8476,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>3744</v>
       </c>
@@ -8491,7 +8487,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>3746</v>
       </c>
@@ -8502,7 +8498,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>3747</v>
       </c>
@@ -8513,7 +8509,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>3749</v>
       </c>
@@ -8524,7 +8520,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>3750</v>
       </c>
@@ -8535,7 +8531,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>3751</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>3752</v>
       </c>
@@ -8557,7 +8553,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>3753</v>
       </c>
@@ -8568,7 +8564,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>3754</v>
       </c>
@@ -8579,7 +8575,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>3755</v>
       </c>
@@ -8590,7 +8586,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>3756</v>
       </c>
@@ -8601,7 +8597,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>3757</v>
       </c>
@@ -8612,7 +8608,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>3758</v>
       </c>
@@ -8623,7 +8619,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>3759</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>3760</v>
       </c>
@@ -8645,7 +8641,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>3761</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>3762</v>
       </c>
@@ -8667,7 +8663,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>3763</v>
       </c>
@@ -8678,7 +8674,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>3764</v>
       </c>
@@ -8689,7 +8685,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>3765</v>
       </c>
@@ -8700,7 +8696,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>3766</v>
       </c>
@@ -8711,7 +8707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>3767</v>
       </c>
@@ -8722,7 +8718,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>3770</v>
       </c>
@@ -8733,7 +8729,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>3775</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>3777</v>
       </c>
@@ -8755,7 +8751,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>3778</v>
       </c>
@@ -8766,7 +8762,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>3779</v>
       </c>
@@ -8777,7 +8773,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>3781</v>
       </c>
@@ -8788,7 +8784,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>3782</v>
       </c>
@@ -8799,7 +8795,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>3783</v>
       </c>
@@ -8810,7 +8806,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>3786</v>
       </c>
@@ -8821,7 +8817,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>3787</v>
       </c>
@@ -8832,7 +8828,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>3788</v>
       </c>
@@ -8843,7 +8839,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>3789</v>
       </c>
@@ -8854,7 +8850,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>3791</v>
       </c>
@@ -8865,7 +8861,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>3792</v>
       </c>
@@ -8876,7 +8872,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>3793</v>
       </c>
@@ -8887,7 +8883,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>3795</v>
       </c>
@@ -8898,7 +8894,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>3796</v>
       </c>
@@ -8909,7 +8905,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>3797</v>
       </c>
@@ -8920,7 +8916,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>3799</v>
       </c>
@@ -8931,7 +8927,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>3800</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>3802</v>
       </c>
@@ -8953,7 +8949,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>3803</v>
       </c>
@@ -8964,7 +8960,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>3804</v>
       </c>
@@ -8975,7 +8971,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>3805</v>
       </c>
@@ -8986,7 +8982,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>3806</v>
       </c>
@@ -8997,7 +8993,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>3807</v>
       </c>
@@ -9008,7 +9004,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>3808</v>
       </c>
@@ -9019,7 +9015,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>3809</v>
       </c>
@@ -9030,7 +9026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>3810</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>3812</v>
       </c>
@@ -9052,7 +9048,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>3813</v>
       </c>
@@ -9063,7 +9059,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>3814</v>
       </c>
@@ -9074,7 +9070,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>3815</v>
       </c>
@@ -9085,7 +9081,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>3816</v>
       </c>
@@ -9096,7 +9092,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>3818</v>
       </c>
@@ -9107,7 +9103,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>3820</v>
       </c>
@@ -9118,7 +9114,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>3821</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>3822</v>
       </c>
@@ -9140,7 +9136,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>3823</v>
       </c>
@@ -9151,7 +9147,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>3824</v>
       </c>
@@ -9162,7 +9158,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>3825</v>
       </c>
@@ -9173,7 +9169,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>3831</v>
       </c>
@@ -9184,7 +9180,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>3832</v>
       </c>
@@ -9195,7 +9191,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>3833</v>
       </c>
@@ -9206,7 +9202,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>3835</v>
       </c>
@@ -9217,7 +9213,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>3840</v>
       </c>
@@ -9228,7 +9224,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>3841</v>
       </c>
@@ -9239,7 +9235,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>3842</v>
       </c>
@@ -9250,7 +9246,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>3844</v>
       </c>
@@ -9261,7 +9257,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>3847</v>
       </c>
@@ -9272,7 +9268,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>3850</v>
       </c>
@@ -9283,7 +9279,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>3851</v>
       </c>
@@ -9294,7 +9290,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>3852</v>
       </c>
@@ -9305,7 +9301,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>3853</v>
       </c>
@@ -9316,7 +9312,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>3854</v>
       </c>
@@ -9327,7 +9323,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>3856</v>
       </c>
@@ -9338,7 +9334,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>3857</v>
       </c>
@@ -9349,7 +9345,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>3858</v>
       </c>
@@ -9360,7 +9356,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>3859</v>
       </c>
@@ -9371,7 +9367,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>3860</v>
       </c>
@@ -9382,7 +9378,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>3862</v>
       </c>
@@ -9393,7 +9389,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>3864</v>
       </c>
@@ -9404,7 +9400,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>3865</v>
       </c>
@@ -9415,7 +9411,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>3869</v>
       </c>
@@ -9426,7 +9422,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>3870</v>
       </c>
@@ -9437,7 +9433,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>3871</v>
       </c>
@@ -9448,7 +9444,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>3873</v>
       </c>
@@ -9459,7 +9455,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>3874</v>
       </c>
@@ -9470,7 +9466,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>3875</v>
       </c>
@@ -9481,7 +9477,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>3878</v>
       </c>
@@ -9492,7 +9488,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>3880</v>
       </c>
@@ -9503,7 +9499,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>3882</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>3885</v>
       </c>
@@ -9525,7 +9521,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>3886</v>
       </c>
@@ -9536,7 +9532,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>3887</v>
       </c>
@@ -9547,7 +9543,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>3888</v>
       </c>
@@ -9558,7 +9554,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>3889</v>
       </c>
@@ -9569,7 +9565,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>3890</v>
       </c>
@@ -9580,7 +9576,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>3891</v>
       </c>
@@ -9591,7 +9587,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>3892</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>3893</v>
       </c>
@@ -9613,7 +9609,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>3895</v>
       </c>
@@ -9624,7 +9620,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>3896</v>
       </c>
@@ -9635,7 +9631,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>3898</v>
       </c>
@@ -9646,7 +9642,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>3900</v>
       </c>
@@ -9657,7 +9653,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>3902</v>
       </c>
@@ -9668,7 +9664,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>3903</v>
       </c>
@@ -9679,7 +9675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>3904</v>
       </c>
@@ -9690,7 +9686,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>3909</v>
       </c>
@@ -9701,7 +9697,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>3910</v>
       </c>
@@ -9712,7 +9708,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>3911</v>
       </c>
@@ -9723,7 +9719,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>3912</v>
       </c>
@@ -9734,7 +9730,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>3913</v>
       </c>
@@ -9745,7 +9741,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>3915</v>
       </c>
@@ -9756,7 +9752,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>3916</v>
       </c>
@@ -9767,7 +9763,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>3918</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>3919</v>
       </c>
@@ -9789,7 +9785,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>3920</v>
       </c>
@@ -9800,7 +9796,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>3921</v>
       </c>
@@ -9811,7 +9807,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>3922</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>3923</v>
       </c>
@@ -9833,7 +9829,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>3925</v>
       </c>
@@ -9844,7 +9840,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>3926</v>
       </c>
@@ -9855,7 +9851,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>3927</v>
       </c>
@@ -9866,7 +9862,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>3928</v>
       </c>
@@ -9877,7 +9873,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>3929</v>
       </c>
@@ -9888,7 +9884,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>3930</v>
       </c>
@@ -9899,7 +9895,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>3931</v>
       </c>
@@ -9910,7 +9906,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>3933</v>
       </c>
@@ -9921,7 +9917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>3934</v>
       </c>
@@ -9932,7 +9928,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>3936</v>
       </c>
@@ -9943,7 +9939,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>3937</v>
       </c>
@@ -9954,7 +9950,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>3938</v>
       </c>
@@ -9965,7 +9961,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>3939</v>
       </c>
@@ -9976,7 +9972,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>3940</v>
       </c>
@@ -9987,7 +9983,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>3941</v>
       </c>
@@ -9998,7 +9994,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>3942</v>
       </c>
@@ -10009,7 +10005,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>3943</v>
       </c>
@@ -10020,7 +10016,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>3944</v>
       </c>
@@ -10031,7 +10027,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>3945</v>
       </c>
@@ -10042,7 +10038,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>3946</v>
       </c>
@@ -10053,7 +10049,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>3950</v>
       </c>
@@ -10064,7 +10060,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>3951</v>
       </c>
@@ -10075,7 +10071,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>3953</v>
       </c>
@@ -10086,7 +10082,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>3954</v>
       </c>
@@ -10097,7 +10093,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>3956</v>
       </c>
@@ -10108,7 +10104,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>3957</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>3958</v>
       </c>
@@ -10130,7 +10126,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>3959</v>
       </c>
@@ -10141,7 +10137,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>3960</v>
       </c>
@@ -10152,7 +10148,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>3962</v>
       </c>
@@ -10163,7 +10159,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>3964</v>
       </c>
@@ -10174,7 +10170,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>3965</v>
       </c>
@@ -10185,7 +10181,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>3966</v>
       </c>
@@ -10196,7 +10192,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>3967</v>
       </c>
@@ -10207,7 +10203,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>3971</v>
       </c>
@@ -10218,7 +10214,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>3975</v>
       </c>
@@ -10229,7 +10225,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>3976</v>
       </c>
@@ -10240,7 +10236,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>3977</v>
       </c>
@@ -10251,7 +10247,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>3978</v>
       </c>
@@ -10262,7 +10258,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>3979</v>
       </c>
@@ -10273,7 +10269,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>3980</v>
       </c>
@@ -10284,7 +10280,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>3981</v>
       </c>
@@ -10295,7 +10291,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>3984</v>
       </c>
@@ -10306,7 +10302,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>3987</v>
       </c>
@@ -10317,7 +10313,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>3988</v>
       </c>
@@ -10328,7 +10324,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>3990</v>
       </c>
@@ -10339,7 +10335,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>3991</v>
       </c>
@@ -10350,7 +10346,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>3992</v>
       </c>
@@ -10361,7 +10357,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>3995</v>
       </c>
@@ -10372,7 +10368,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>3996</v>
       </c>
@@ -10384,7 +10380,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C726">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C726">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
